--- a/Feature_Engineering/Missing_Value/Sales.xlsx
+++ b/Feature_Engineering/Missing_Value/Sales.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atul8\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\E\Github\Data_Files\Feature_Engineering\Missing_Value\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD55E4CA-8A36-4A45-912A-7F1616F11E91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B9CF59A-1DF0-47AC-99F1-A9DA5CC1FF4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,13 +30,13 @@
     <t>Day_Temp</t>
   </si>
   <si>
-    <t xml:space="preserve">No_of_Customers </t>
-  </si>
-  <si>
     <t>Sales</t>
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>No_of_Customers</t>
   </si>
 </sst>
 </file>
@@ -405,24 +405,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
